--- a/biology/Médecine/Kératose_actinique/Kératose_actinique.xlsx
+++ b/biology/Médecine/Kératose_actinique/Kératose_actinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%A9ratose_actinique</t>
+          <t>Kératose_actinique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une kératose actinique ou kératose solaire est une lésion cutanée développée à partir des kératinocytes, à la suite d'une exposition chronique et importante au soleil, et pouvant potentiellement évoluer en cancer de la peau[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une kératose actinique ou kératose solaire est une lésion cutanée développée à partir des kératinocytes, à la suite d'une exposition chronique et importante au soleil, et pouvant potentiellement évoluer en cancer de la peau. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K%C3%A9ratose_actinique</t>
+          <t>Kératose_actinique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Kératose » signifie épaississement de la couche cornée de l’épiderme, « actinique » et « solaire » font référence à la principale cause de cette affection[2], à savoir les rayons solaires, « actinique » signifiant induit par la lumière et « solaire » par le soleil. Les kératoses actiniques – il y en a généralement plusieurs – ne surviennent qu’aux endroits du corps qui sont exposés au soleil pendant une période prolongée. Une des composantes des rayons solaires, la lumière ultraviolette, qu’on appelle aussi lumière UVB, est responsable en premier lieu de la survenue de ces lésions cutanées. Les rayons solaires ayant agi pendant des années sur certaines cellules de la couche supérieure de la peau, il s’ensuit des modifications permanentes de l’activité cellulaire normale. La fonction des cellules devient incontrôlée et elles forment des « kératoses »[2].
-La lésion est formée de kératinocytes aberrants[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Kératose » signifie épaississement de la couche cornée de l’épiderme, « actinique » et « solaire » font référence à la principale cause de cette affection, à savoir les rayons solaires, « actinique » signifiant induit par la lumière et « solaire » par le soleil. Les kératoses actiniques – il y en a généralement plusieurs – ne surviennent qu’aux endroits du corps qui sont exposés au soleil pendant une période prolongée. Une des composantes des rayons solaires, la lumière ultraviolette, qu’on appelle aussi lumière UVB, est responsable en premier lieu de la survenue de ces lésions cutanées. Les rayons solaires ayant agi pendant des années sur certaines cellules de la couche supérieure de la peau, il s’ensuit des modifications permanentes de l’activité cellulaire normale. La fonction des cellules devient incontrôlée et elles forment des « kératoses ».
+La lésion est formée de kératinocytes aberrants.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K%C3%A9ratose_actinique</t>
+          <t>Kératose_actinique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux principaux facteurs de risque sont l'exposition solaire (dose totale cumulée) ainsi qu'une peau blanche. Son[Quoi ?] incidence augmente avec l'âge. Les lésions sont situés essentiellement en zones de peau exposées au soleil[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux principaux facteurs de risque sont l'exposition solaire (dose totale cumulée) ainsi qu'une peau blanche. Son[Quoi ?] incidence augmente avec l'âge. Les lésions sont situés essentiellement en zones de peau exposées au soleil.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>K%C3%A9ratose_actinique</t>
+          <t>Kératose_actinique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La kératose actinique est considérée comme précancéreuse et peut évoluer de différentes manières : elle peut se résorber spontanément, persister ou augmenter de volume plus ou moins rapidement. Dans 16[2] à 20 % des cas, elle peut évoluer vers un carcinome spinocellulaire ou carcinome épidermoïde.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La kératose actinique est considérée comme précancéreuse et peut évoluer de différentes manières : elle peut se résorber spontanément, persister ou augmenter de volume plus ou moins rapidement. Dans 16 à 20 % des cas, elle peut évoluer vers un carcinome spinocellulaire ou carcinome épidermoïde.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>K%C3%A9ratose_actinique</t>
+          <t>Kératose_actinique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,18 +623,20 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'y a pas d'intérêt démontré à traiter systématiquement toutes les lésions de kératose actinique. Cependant les recommandations sont de proposer un traitement à tous les patients afin d'éviter l'évolution potentielle vers un cancer de la peau plus difficile à traiter[5].
-Il existe différentes possibilités thérapeutiques qui sont évaluées et ont montré une efficacité[2],[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a pas d'intérêt démontré à traiter systématiquement toutes les lésions de kératose actinique. Cependant les recommandations sont de proposer un traitement à tous les patients afin d'éviter l'évolution potentielle vers un cancer de la peau plus difficile à traiter.
+Il existe différentes possibilités thérapeutiques qui sont évaluées et ont montré une efficacité, :
 cryothérapie ;
 chirurgie ;
-crèmes à l'imiquimod[6] ou au 5 Fluorouracil[7] ;
+crèmes à l'imiquimod ou au 5 Fluorouracil ;
 laser, curetage et électrocoagulation ;
-gel au diclofenac[8], au mébutate d'ingénol (en)[9] ;
+gel au diclofenac, au mébutate d'ingénol (en) ;
 la thérapie photodynamique ou PDT (photothérapie dynamique topique).
-Le traitement est à adapter en fonction de la localisation, des caractéristiques du patient et de celles de la kératose actinique[5].
-L'application d'une crème contenant du 5 Fluorouracil s'avère supérieur aux autres traitements en matière de réduction des lésions à un an[10].
+Le traitement est à adapter en fonction de la localisation, des caractéristiques du patient et de celles de la kératose actinique.
+L'application d'une crème contenant du 5 Fluorouracil s'avère supérieur aux autres traitements en matière de réduction des lésions à un an.
 </t>
         </is>
       </c>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>K%C3%A9ratose_actinique</t>
+          <t>Kératose_actinique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,9 +665,11 @@
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prévention peut se faire par protection solaire. Certaines personnes sont plus à risque, notamment les peaux claires, ou celles ayant une exposition solaire importante, professionnelle (marins, agriculteurs…) ou récréative[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prévention peut se faire par protection solaire. Certaines personnes sont plus à risque, notamment les peaux claires, ou celles ayant une exposition solaire importante, professionnelle (marins, agriculteurs…) ou récréative.
 </t>
         </is>
       </c>
@@ -658,7 +680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>K%C3%A9ratose_actinique</t>
+          <t>Kératose_actinique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,9 +698,11 @@
           <t>Coût</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coût annuel de prise en charge aux États-Unis est estimé à un peu moins d'un milliard de dollars (chiffres publiés en 2006), la moitié étant consacrée aux procédures d'ablation[11].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coût annuel de prise en charge aux États-Unis est estimé à un peu moins d'un milliard de dollars (chiffres publiés en 2006), la moitié étant consacrée aux procédures d'ablation.
 </t>
         </is>
       </c>
